--- a/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/unfreeze/ce-uniform/52680723/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/unfreeze/ce-uniform/52680723/prediction.xlsx
@@ -483,14 +483,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9321223497390747</v>
+        <v>0.5597561597824097</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9949605464935303</v>
+        <v>0.5592693686485291</v>
       </c>
     </row>
     <row r="4">
@@ -539,14 +539,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9916948676109314</v>
+        <v>0.3389701843261719</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9296567440032959</v>
+        <v>0.2784736752510071</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9949595928192139</v>
+        <v>0.5595481395721436</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9949570298194885</v>
+        <v>0.5598673820495605</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9949610233306885</v>
+        <v>0.560113787651062</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9949597120285034</v>
+        <v>0.5595951080322266</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9949610233306885</v>
+        <v>0.560113787651062</v>
       </c>
     </row>
     <row r="11">
@@ -735,14 +735,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7642635703086853</v>
+        <v>0.273281067609787</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9949613809585571</v>
+        <v>0.5601689219474792</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9811071157455444</v>
+        <v>0.3626524209976196</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9949536919593811</v>
+        <v>0.5600503087043762</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.994953453540802</v>
+        <v>0.5599560737609863</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9949567914009094</v>
+        <v>0.5595352053642273</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9949554800987244</v>
+        <v>0.5595859289169312</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6804651618003845</v>
+        <v>0.221440315246582</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9949584603309631</v>
+        <v>0.5597808957099915</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9949567914009094</v>
+        <v>0.5594489574432373</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9949546456336975</v>
+        <v>0.5598198175430298</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9949559569358826</v>
+        <v>0.5427091717720032</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9949599504470825</v>
+        <v>0.5597428679466248</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9949536919593811</v>
+        <v>0.5598931908607483</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9300776124000549</v>
+        <v>0.2771661579608917</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.681596577167511</v>
+        <v>0.2163900136947632</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9949584603309631</v>
+        <v>0.5597222447395325</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9949605464935303</v>
+        <v>0.5592693686485291</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9949051141738892</v>
+        <v>0.5599038600921631</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9949595928192139</v>
+        <v>0.559594988822937</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9949612617492676</v>
+        <v>0.5593559145927429</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9949589967727661</v>
+        <v>0.5596836805343628</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9705584049224854</v>
+        <v>0.3546592891216278</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9811633229255676</v>
+        <v>0.3626991808414459</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9810687899589539</v>
+        <v>0.3614194691181183</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9949573874473572</v>
+        <v>0.5599327087402344</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9810832142829895</v>
+        <v>0.3620189726352692</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.994962215423584</v>
+        <v>0.560093104839325</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9807748794555664</v>
+        <v>0.360607922077179</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9699333310127258</v>
+        <v>0.3369487524032593</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9949595928192139</v>
+        <v>0.5599617958068848</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9756277203559875</v>
+        <v>0.3617058992385864</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9704810380935669</v>
+        <v>0.3552676439285278</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9809913635253906</v>
+        <v>0.3614929914474487</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.970301628112793</v>
+        <v>0.3548485338687897</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9706674218177795</v>
+        <v>0.342840313911438</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9238470792770386</v>
+        <v>0.2774011492729187</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9705800414085388</v>
+        <v>0.3541752099990845</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9949597120285034</v>
+        <v>0.559792160987854</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9704830646514893</v>
+        <v>0.3546004891395569</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9700867533683777</v>
+        <v>0.351767897605896</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9949565529823303</v>
+        <v>0.5593022704124451</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9704830646514893</v>
+        <v>0.3546004891395569</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9703601002693176</v>
+        <v>0.3544714450836182</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9949555993080139</v>
+        <v>0.5597659945487976</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9949588179588318</v>
+        <v>0.5601835250854492</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9949573874473572</v>
+        <v>0.5600364208221436</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9810900092124939</v>
+        <v>0.3614189326763153</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9949583411216736</v>
+        <v>0.5599508285522461</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9949563145637512</v>
+        <v>0.5597203969955444</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9949579834938049</v>
+        <v>0.5599897503852844</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9949600696563721</v>
+        <v>0.5600813031196594</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9810025691986084</v>
+        <v>0.3612990975379944</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9666611552238464</v>
+        <v>0.2724299132823944</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9810745120048523</v>
+        <v>0.3613919913768768</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9810745120048523</v>
+        <v>0.3613919913768768</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9811247587203979</v>
+        <v>0.3614887595176697</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9810745120048523</v>
+        <v>0.3613919913768768</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9332320094108582</v>
+        <v>0.2921297550201416</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9949591159820557</v>
+        <v>0.5597527623176575</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9811509251594543</v>
+        <v>0.3621957302093506</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9949613809585571</v>
+        <v>0.5583095550537109</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9811107516288757</v>
+        <v>0.36187943816185</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9949595928192139</v>
+        <v>0.5601423382759094</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9949581027030945</v>
+        <v>0.559638500213623</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9811107516288757</v>
+        <v>0.36187943816185</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9949547648429871</v>
+        <v>0.5593158602714539</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9811107516288757</v>
+        <v>0.36187943816185</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9949566721916199</v>
+        <v>0.5599328279495239</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.981090247631073</v>
+        <v>0.3617421984672546</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9949106574058533</v>
+        <v>0.5592244863510132</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.981090247631073</v>
+        <v>0.3617421984672546</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9895702600479126</v>
+        <v>0.5593421459197998</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9895702600479126</v>
+        <v>0.5593421459197998</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9949600696563721</v>
+        <v>0.5600991249084473</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9811158180236816</v>
+        <v>0.3617098331451416</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9881182312965393</v>
+        <v>0.5503242611885071</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9811040163040161</v>
+        <v>0.3617134392261505</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9949445128440857</v>
+        <v>0.5592281818389893</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9949585795402527</v>
+        <v>0.5600939393043518</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9949588179588318</v>
+        <v>0.5601038336753845</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9949578642845154</v>
+        <v>0.5600801110267639</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9949570298194885</v>
+        <v>0.5600777864456177</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9949578642845154</v>
+        <v>0.5600850582122803</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9949589371681213</v>
+        <v>0.5600860118865967</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9949609041213989</v>
+        <v>0.5600219964981079</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.7388393878936768</v>
+        <v>0.2275669127702713</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9949494600296021</v>
+        <v>0.5600561499595642</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9935665726661682</v>
+        <v>0.4991561770439148</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9949605464935303</v>
+        <v>0.5598304271697998</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9949600696563721</v>
+        <v>0.5598301291465759</v>
       </c>
     </row>
     <row r="102">
@@ -3283,14 +3283,14 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9810529351234436</v>
+        <v>0.2787836194038391</v>
       </c>
     </row>
     <row r="103">
@@ -3311,14 +3311,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9914472103118896</v>
+        <v>0.352475643157959</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9949607849121094</v>
+        <v>0.5595579743385315</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9328956604003906</v>
+        <v>0.2922784686088562</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9949620962142944</v>
+        <v>0.5598745942115784</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.970609724521637</v>
+        <v>0.3553348183631897</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9300153255462646</v>
+        <v>0.2748502194881439</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9949576258659363</v>
+        <v>0.5597167611122131</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9949605464935303</v>
+        <v>0.5592693686485291</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9705864787101746</v>
+        <v>0.3546715676784515</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9706120491027832</v>
+        <v>0.3552911281585693</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9811549782752991</v>
+        <v>0.3625081479549408</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9949637651443481</v>
+        <v>0.560029923915863</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9811041355133057</v>
+        <v>0.3619354069232941</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9948298335075378</v>
+        <v>0.5593093037605286</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9943534135818481</v>
+        <v>0.5596301555633545</v>
       </c>
     </row>
     <row r="118">
@@ -3731,14 +3731,14 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.8447165489196777</v>
+        <v>0.2268180996179581</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9949536919593811</v>
+        <v>0.5598856210708618</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9949605464935303</v>
+        <v>0.5592693686485291</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9332090020179749</v>
+        <v>0.2917059063911438</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9949563145637512</v>
+        <v>0.5601180791854858</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9332090020179749</v>
+        <v>0.2917059063911438</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9949563145637512</v>
+        <v>0.5601180791854858</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9332090020179749</v>
+        <v>0.2917059063911438</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9949570298194885</v>
+        <v>0.5600122213363647</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.8494341373443604</v>
+        <v>0.5547706484794617</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9949605464935303</v>
+        <v>0.5592693686485291</v>
       </c>
     </row>
     <row r="129">
@@ -4039,14 +4039,14 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9949554800987244</v>
+        <v>0.2802339196205139</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9949530959129333</v>
+        <v>0.5597938895225525</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9949557185173035</v>
+        <v>0.559714674949646</v>
       </c>
     </row>
     <row r="132">
@@ -4123,14 +4123,14 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9915329813957214</v>
+        <v>0.2548205256462097</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9949540495872498</v>
+        <v>0.5596070289611816</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9949584603309631</v>
+        <v>0.5599896311759949</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9949575066566467</v>
+        <v>0.559821605682373</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9949384927749634</v>
+        <v>0.5594351291656494</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9949551224708557</v>
+        <v>0.5597110390663147</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9949573874473572</v>
+        <v>0.5596721768379211</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.994958221912384</v>
+        <v>0.5596503615379333</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.994958221912384</v>
+        <v>0.5593307018280029</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9096439480781555</v>
+        <v>0.2285002470016479</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9949605464935303</v>
+        <v>0.5592693686485291</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.981019914150238</v>
+        <v>0.361246645450592</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9949500560760498</v>
+        <v>0.5601075887680054</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.981019914150238</v>
+        <v>0.361246645450592</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9949504137039185</v>
+        <v>0.5593081116676331</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9332320094108582</v>
+        <v>0.2921297550201416</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9949599504470825</v>
+        <v>0.5598355531692505</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.98110032081604</v>
+        <v>0.3617967367172241</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9335120320320129</v>
+        <v>0.2912525534629822</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9949605464935303</v>
+        <v>0.5592693686485291</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9301948547363281</v>
+        <v>0.2767088413238525</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9949628114700317</v>
+        <v>0.5600862503051758</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9298187494277954</v>
+        <v>0.2768822312355042</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9949604272842407</v>
+        <v>0.5599544644355774</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9297882318496704</v>
+        <v>0.2763741612434387</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9949605464935303</v>
+        <v>0.5599995851516724</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9297938942909241</v>
+        <v>0.2763101756572723</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9949581027030945</v>
+        <v>0.5599293112754822</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9811074733734131</v>
+        <v>0.3622308075428009</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9949592351913452</v>
+        <v>0.5595650672912598</v>
       </c>
     </row>
     <row r="162">
@@ -4963,14 +4963,14 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.8509966135025024</v>
+        <v>0.5451111197471619</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9949557185173035</v>
+        <v>0.5595735907554626</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9810814261436462</v>
+        <v>0.3615334331989288</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9949620962142944</v>
+        <v>0.5601487755775452</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9949547648429871</v>
+        <v>0.5594174265861511</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9705771207809448</v>
+        <v>0.3509855270385742</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9811749458312988</v>
+        <v>0.3621755540370941</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9949605464935303</v>
+        <v>0.5592693686485291</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9705771207809448</v>
+        <v>0.3509855270385742</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9811055064201355</v>
+        <v>0.3619459569454193</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9949605464935303</v>
+        <v>0.5592693686485291</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9949565529823303</v>
+        <v>0.5597538352012634</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9949573874473572</v>
+        <v>0.559650182723999</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9949565529823303</v>
+        <v>0.5597538352012634</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9949565529823303</v>
+        <v>0.5597538352012634</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9949573874473572</v>
+        <v>0.559650182723999</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9949585795402527</v>
+        <v>0.5600277185440063</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9949619770050049</v>
+        <v>0.5583955645561218</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9949514865875244</v>
+        <v>0.5596102476119995</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9949595928192139</v>
+        <v>0.5599807500839233</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9949576258659363</v>
+        <v>0.5598756670951843</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9331591725349426</v>
+        <v>0.2912553250789642</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.994959831237793</v>
+        <v>0.5600636601448059</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9949533343315125</v>
+        <v>0.5601682662963867</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.994946300983429</v>
+        <v>0.5601804256439209</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9949525594711304</v>
+        <v>0.5601816177368164</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9949570298194885</v>
+        <v>0.560014009475708</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9949394464492798</v>
+        <v>0.5600543022155762</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9949445128440857</v>
+        <v>0.5600692629814148</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.7389158606529236</v>
+        <v>0.2262928485870361</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9949552416801453</v>
+        <v>0.5598624348640442</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.994955837726593</v>
+        <v>0.5595778226852417</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9332785606384277</v>
+        <v>0.2914370596408844</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9705685973167419</v>
+        <v>0.3524008393287659</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9949567914009094</v>
+        <v>0.5600489377975464</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9949575066566467</v>
+        <v>0.5600467324256897</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9949576258659363</v>
+        <v>0.560076117515564</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9949585795402527</v>
+        <v>0.5598137974739075</v>
       </c>
     </row>
     <row r="200">
@@ -6027,14 +6027,14 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9811143279075623</v>
+        <v>0.3526594042778015</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9949601888656616</v>
+        <v>0.5599671006202698</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9949591159820557</v>
+        <v>0.5599111914634705</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9949550032615662</v>
+        <v>0.559587299823761</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9704774618148804</v>
+        <v>0.352662205696106</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9949583411216736</v>
+        <v>0.5560229420661926</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9949541687965393</v>
+        <v>0.559593677520752</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.7375530600547791</v>
+        <v>0.2269520461559296</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9949502944946289</v>
+        <v>0.558277428150177</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.6816185116767883</v>
+        <v>0.1951245069503784</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9949542880058289</v>
+        <v>0.5596181750297546</v>
       </c>
     </row>
   </sheetData>
